--- a/문서/화면 설계서 정의/화면 설계 정의.xlsx
+++ b/문서/화면 설계서 정의/화면 설계 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codehows\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-HaYeJiWoo-\문서\화면 설계서 정의\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB21D46-475B-438B-9EEC-E35D9BEB4684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD03C8-2A78-4556-A841-5900E923F4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="2770" windowWidth="31320" windowHeight="15370" xr2:uid="{36931E44-7A5A-40CF-9EE5-65B07D65A5F5}"/>
+    <workbookView xWindow="4000" yWindow="3390" windowWidth="35980" windowHeight="15370" xr2:uid="{36931E44-7A5A-40CF-9EE5-65B07D65A5F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t xml:space="preserve">분류 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제 게시물 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>복구버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">입력 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">출력 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,15 +211,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">헤더, 글 번호, 제목, 본문, 조회수, 좋아요, 해시태그, 작성자, 작성일, 수정일, 댓글?? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글 등록 버튼, 목록 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>글 수정 버튼, 취소버튼, 목록 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 검색바(제목, 본문, 작성자, 해시태그 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력(레이블, 폼, 기타 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">?? 검색 가능하게 할건지? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 게시물 페이지(삭제 게시물 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">헤더, 글 번호, 제목, 본문, 조회수, 좋아요, 해시태그, 작성자, 작성일, 수정일, ??댓글?? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,43 +626,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D85D08-0662-4335-BE30-012E82549AF5}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="63.83203125" customWidth="1"/>
     <col min="4" max="4" width="58.33203125" customWidth="1"/>
-    <col min="5" max="5" width="71.5" customWidth="1"/>
+    <col min="5" max="5" width="73.5" customWidth="1"/>
     <col min="6" max="6" width="34.1640625" customWidth="1"/>
-    <col min="7" max="7" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.4140625" customWidth="1"/>
+    <col min="8" max="8" width="65.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -666,11 +682,11 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,7 +703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -704,7 +720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -715,32 +731,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -748,10 +767,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
@@ -759,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -768,63 +787,75 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -832,16 +863,16 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
@@ -866,13 +897,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/문서/화면 설계서 정의/화면 설계 정의.xlsx
+++ b/문서/화면 설계서 정의/화면 설계 정의.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\-HaYeJiWoo-\문서\화면 설계서 정의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codehows\Desktop\a1 사이트 연습\-HaYeJiWoo-\문서\화면 설계서 정의\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFD03C8-2A78-4556-A841-5900E923F4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB1E631-F883-4F5A-BEBC-26792E45D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="3390" windowWidth="35980" windowHeight="15370" xr2:uid="{36931E44-7A5A-40CF-9EE5-65B07D65A5F5}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="33900" windowHeight="20970" xr2:uid="{36931E44-7A5A-40CF-9EE5-65B07D65A5F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t xml:space="preserve">분류 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,30 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">글 수정 페이지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 등록 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">게시글 내용 페이지   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">일상 페이지 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛집 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저 개인정보 조회+수정 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,58 +75,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정 버튼, 취소 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 버튼 누르면 가입(회원 가입 완료 안내 띄워주기) or 에러메세지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">이메일, 비밀번호 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">아이디, 닉네임, 이메일, 패스워드 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">아이디 레이블, 닉네임, 이메일, 패스워드 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>헤더, 일별 방문자그래프, 월별 방문자그래프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복구버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더, 제목, 본문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">출력 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,66 +103,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">헤더, 삭제된게시물 목록 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">헤더, 게시글, 댓글, 회원 데이터 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">헤더, 작성자, 작성일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">제목, 본문, 해시태그 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">헤더, 작성자, 작성일, 수정일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더, 전체 게시물 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더, 게임 카테고리에 해당하는 게시물 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더, 맛집 카테고리에 해당하는 게시물 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더, 일상 카테고리에 해당하는 게시물 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 작성 버튼, 페이징 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 버튼, 삭제 버튼, 목록 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 등록 버튼, 목록 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글 수정 버튼, 취소버튼, 목록 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시글 검색바(제목, 본문, 작성자, 해시태그 등)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입력(레이블, 폼, 기타 등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,11 +119,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제 게시물 페이지(삭제 게시물 내용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">헤더, 글 번호, 제목, 본문, 조회수, 좋아요, 해시태그, 작성자, 작성일, 수정일, ??댓글?? </t>
+    <t>게시글 목록 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">헤더, 작성자, 작성일 , 수정일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 등록 버튼, 목록 버튼 | 글 수정 버튼, 취소버튼, 목록 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 등록 페이지(수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 상세 조회 페이지  / 게시물 복구 조회 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">헤더 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">폼 버튼, 카테고리 버튼, 로그인/로그아웃 버튼, 검색, 햄버거바, 마이페이지 버튼,2번  카테고리에 관리자 버튼이 활성화 되게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라우저가 줄어들었을때는햄버거, 로그인, 메인,마이페지이버튼까지만 뜨게, 헤더바는 어떤 페이지를 가더라고 보이게 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">닉네임(중복체크), 이메일(중복체크), 패스워드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더&lt;회원가입&gt; 텍스트만 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입, 로그인 화면으로, 중복체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원가입 버튼 누르면 가입(회원 가입 완료 안내 띄워주기), 중복됬을때 alert 뜨게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">로그인 버튼, text에 하이퍼링크 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인, 회원가입 text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">닉네임, 패스워드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 (개인 정보 수정하기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 버튼, 비밀번호 재확인시 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 text, 이메일 text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최초 접속시에 비밀번호 재확인 -&gt; 확인 성공시 -&gt; 마이페이지 수정 페이지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">텍스트 입력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로고, 검색바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">드롭 다운  버튼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드롭 다운  버튼 클릭 -&gt; 제목, 내용, 해시태그로 검색이 가능하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시글 목록 페이지(일상,맛집,게임, 유머) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 미리보기, 돋보기 옆에 글작성 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">검색 버튼(돋보기 ui), 글작성, 수정, 삭제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카드 형식으로 (글번호, 제목, 작성자, 조회수, 좋아요, 카테고리, 작성일, 이미지), 검색바, 어떤 카테고리인지 상단에 표시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더, 글 번호, 제목, 본문, 조회수, 좋아요, 해시태그, 작성자, 작성일, 수정일,첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시글 : 수정, 삭제, 댓글 : 수정, 삭제, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시글 상세 페이지에서 수정 버튼 활성화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프 or 꺽은선 그래프 중 관리자 페이지 구현하는 사람이 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시글 목록 페이지에서 글쓰기 버튼만 비활성화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(text or 로고)삭제 이력관리 페이지만 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">드롭다운(게시글, 댓글, 회원의 데이터들) 박스가 하나 떠야함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 개수, 용량, 확장파일 확장자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 개수는 드롭다운, 용량은 number 단위는 mb, 확장파일은 ","로 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더, 회원가입, 로그인, 마이페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지, 관리자 통계페이지, 조회 페이지, 첨부파일 관리페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,16 +353,104 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -296,24 +458,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="40% - 강조색1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - 강조색5" xfId="6" builtinId="47"/>
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,9 +590,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -370,7 +630,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -476,7 +736,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -618,7 +878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -626,284 +886,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D85D08-0662-4335-BE30-012E82549AF5}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="C5:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="63.83203125" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" customWidth="1"/>
-    <col min="5" max="5" width="73.5" customWidth="1"/>
-    <col min="6" max="6" width="34.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.4140625" customWidth="1"/>
-    <col min="8" max="8" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
+    <col min="5" max="5" width="57.4140625" customWidth="1"/>
+    <col min="6" max="6" width="62.25" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C5" s="12"/>
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="C6" s="11"/>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="3:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="3:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="C9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="3:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="3:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="C12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="3:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="C13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="3:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="C14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="3:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="3:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="C16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="E23" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.45">
+      <c r="C24" s="2">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
+      <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
